--- a/data/trans_media/IQ18D_M-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ18D_M-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 23,49</t>
+          <t>16,62; 23,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 21,25</t>
+          <t>16,05; 21,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,31; 19,68</t>
+          <t>14,42; 19,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,4; 23,52</t>
+          <t>10,62; 24,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,93</t>
+          <t>18,48; 24,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 23,06</t>
+          <t>18,05; 23,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,97; 18,61</t>
+          <t>14,0; 18,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 19,53</t>
+          <t>11,81; 19,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,24; 22,87</t>
+          <t>18,1; 22,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,57; 21,3</t>
+          <t>17,72; 21,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 18,18</t>
+          <t>14,78; 18,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,55</t>
+          <t>11,96; 19,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,54; 21,56</t>
+          <t>18,49; 21,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,49; 24,02</t>
+          <t>19,51; 23,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,25; 18,9</t>
+          <t>15,12; 18,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 28,22</t>
+          <t>13,33; 27,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,72; 21,72</t>
+          <t>18,68; 21,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,12; 22,41</t>
+          <t>18,15; 22,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 19,34</t>
+          <t>15,49; 19,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 38,57</t>
+          <t>15,84; 42,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,91; 20,99</t>
+          <t>19,01; 21,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,33; 22,13</t>
+          <t>19,3; 22,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,26</t>
+          <t>15,74; 18,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 30,31</t>
+          <t>15,54; 28,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,82; 24,52</t>
+          <t>19,94; 25,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 21,46</t>
+          <t>17,26; 21,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 18,07</t>
+          <t>14,44; 17,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 16,59</t>
+          <t>9,78; 16,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 22,15</t>
+          <t>17,68; 22,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 23,53</t>
+          <t>18,3; 23,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,12; 21,2</t>
+          <t>16,1; 20,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 17,91</t>
+          <t>8,85; 17,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 22,76</t>
+          <t>19,36; 22,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 21,58</t>
+          <t>18,29; 21,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,64; 18,78</t>
+          <t>15,63; 18,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 15,14</t>
+          <t>10,12; 15,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,7; 26,37</t>
+          <t>21,54; 26,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,54; 23,83</t>
+          <t>19,73; 23,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 24,63</t>
+          <t>16,38; 25,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 39,42</t>
+          <t>12,7; 37,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 29,59</t>
+          <t>23,11; 30,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 22,2</t>
+          <t>17,81; 21,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,06; 19,86</t>
+          <t>15,16; 20,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,2; 25,59</t>
+          <t>13,47; 25,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 27,03</t>
+          <t>22,91; 26,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,34; 22,35</t>
+          <t>19,35; 22,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 21,44</t>
+          <t>16,49; 21,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 31,24</t>
+          <t>14,39; 30,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,19; 22,4</t>
+          <t>20,18; 22,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,31; 21,58</t>
+          <t>19,37; 21,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,62</t>
+          <t>16,08; 18,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,77; 23,08</t>
+          <t>13,71; 22,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 23,11</t>
+          <t>20,6; 23,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,05; 21,23</t>
+          <t>18,83; 21,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 18,22</t>
+          <t>15,99; 18,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,32</t>
+          <t>14,05; 22,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,61; 22,34</t>
+          <t>20,67; 22,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,47; 21,05</t>
+          <t>19,38; 21,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 18,11</t>
+          <t>16,34; 17,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,91</t>
+          <t>14,4; 20,8</t>
         </is>
       </c>
     </row>
